--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
+  </si>
+  <si>
+    <t>ID999</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>08/31/21 04:11:08</t>
   </si>
   <si>
     <t>Pass</t>
@@ -104,16 +113,40 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -121,7 +154,7 @@
     </row>
     <row r="4">
       <c r="F4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -129,7 +162,7 @@
     </row>
     <row r="5">
       <c r="F5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -137,7 +170,7 @@
     </row>
     <row r="6">
       <c r="F6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>08/31/21 04:11:08</t>
+    <t>08/31/21 21:42:26</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>08/31/21 21:42:26</t>
+    <t>08/31/21 21:45:23</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -26,13 +26,10 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
-    <t>ID999</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>08/31/21 21:45:23</t>
+    <t>08/31/21 21:47:29</t>
   </si>
   <si>
     <t>Pass</t>
@@ -117,36 +114,24 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -154,7 +139,7 @@
     </row>
     <row r="4">
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -162,7 +147,7 @@
     </row>
     <row r="5">
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -170,7 +155,7 @@
     </row>
     <row r="6">
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
+    <t>1 st</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>08/31/21 21:47:29</t>
+    <t>08/31/21 22:50:20</t>
   </si>
   <si>
     <t>Pass</t>
@@ -114,16 +117,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -131,7 +134,7 @@
     </row>
     <row r="3">
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -139,7 +142,7 @@
     </row>
     <row r="4">
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -147,7 +150,7 @@
     </row>
     <row r="5">
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -155,7 +158,7 @@
     </row>
     <row r="6">
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>08/31/21 22:50:20</t>
+    <t>08/31/21 22:51:30</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>08/31/21 22:51:30</t>
+    <t>09/01/21 02:11:31</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,16 +32,16 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>09/01/21 02:11:31</t>
+    <t>09/01/21 02:12:32</t>
+  </si>
+  <si>
+    <t>Not executed</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Not executed</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -123,10 +123,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -134,7 +134,7 @@
     </row>
     <row r="3">
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -142,10 +142,10 @@
     </row>
     <row r="4">
       <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -161,7 +161,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>09/01/21 02:12:32</t>
+    <t>09/01/21 02:17:35</t>
   </si>
   <si>
     <t>Not executed</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>09/01/21 02:17:35</t>
+    <t>09/01/21 02:22:48</t>
   </si>
   <si>
     <t>Not executed</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -26,16 +26,19 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
-    <t>1 st</t>
+    <t>3rd</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>09/01/21 02:22:48</t>
+    <t>09/01/21 02:23:39</t>
   </si>
   <si>
     <t>Not executed</t>
+  </si>
+  <si>
+    <t>1 st</t>
   </si>
   <si>
     <t>Pass</t>
@@ -126,15 +129,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -145,12 +160,12 @@
         <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -158,10 +173,10 @@
     </row>
     <row r="6">
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
